--- a/console/Elastic-Compute/Virtual-Machine/components/pip/pipSelecByaz.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/pip/pipSelecByaz.xlsx
@@ -105,26 +105,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Full availability zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no_pip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No current available EIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loading</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Uploading…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -185,6 +173,18 @@
       </rPr>
       <t>…</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No available EIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Azs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +550,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -613,29 +613,29 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
